--- a/Input/Testdata.xlsx
+++ b/Input/Testdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>sathish</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>porur</t>
+  </si>
+  <si>
+    <t>FITA</t>
+  </si>
+  <si>
+    <t>TEchnology</t>
+  </si>
+  <si>
+    <t>annanagar</t>
   </si>
 </sst>
 </file>
@@ -370,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,6 +427,20 @@
       </c>
       <c r="D3">
         <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
